--- a/demo/py_outputs/villages/Gokak_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Gokak_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L270"/>
+  <dimension ref="A1:M270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>28.55903708033034</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>28.77080494642037</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>26.6109390799459</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>29.4154854837043</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>29.01786005647351</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>26.0133096921253</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>24.89575325653734</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>24.53282392983635</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>22.18984731354075</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>23.55580705621461</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>28.61473750980378</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>25.91676158046328</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>28.58775290216574</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>25.86314097639394</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>25.38593747491179</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>28.36716287949548</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>22.41566192132037</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>22.3815239473744</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>26.07508879054668</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>29.51525423687721</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>26.89464438690884</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>27.24775656769472</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>23.17862842075989</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>23.26474195348569</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>20.0470274035603</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>19.39694057959468</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>17.23430599548702</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>19.12059063509111</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>16.91689673225945</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>19.87160285175991</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>16.43672440031111</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>17.94500110359265</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>16.6129701304296</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>16.28676771224174</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>8.019699769557693</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>13.91397751866341</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>10.0583618448031</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>12.31732486011062</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>11.96543722270463</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2651,8 +2773,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>12.56835830277025</v>
       </c>
     </row>
     <row r="42">
@@ -2708,6 +2833,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>9.380445141024838</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>10.35233804652136</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>12.89107494871427</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>14.69065077171814</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>16.90614161320099</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>13.91012183055505</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>15.57457035021651</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>17.39723205640951</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>20.00434250536984</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>21.3571135305424</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>23.27840097401492</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3299,8 +3457,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>8.427490731662028</v>
       </c>
     </row>
     <row r="54">
@@ -3356,6 +3517,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>8.294478703309084</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>2.607461401171784</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>7.822758063426563</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>11.6643982072311</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3745,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>16.61315059981314</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>12.79356937798036</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>9.985543554421822</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>6.293369447857025</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>2.933572545198497</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>4.551575130772759</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>9.706792648538988</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>11.0513122462154</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>10.94425606498784</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>12.87941661109388</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>14.93800934105145</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>14.22560298446636</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>16.82658008736858</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>16.74530618117603</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>13.55567177475129</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>13.78253181446602</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>12.76088250414982</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>11.17649860028066</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>10.46594143451127</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>7.92935958397852</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>8.53852886791719</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>6.520886175638309</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>8.393450897128353</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>11.07430422075186</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>15.3470885130957</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>14.93807454026708</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>9.925370822524531</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5027,8 +5281,11 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>10.03724696121806</v>
       </c>
     </row>
     <row r="86">
@@ -5084,6 +5341,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>9.806272049674929</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>12.04473288689378</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>14.58560337806534</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>14.99494800234166</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>17.22471843276918</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>17.21371937522481</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>20.16096832942794</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>18.33604722593605</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>19.77765988940145</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>21.10465134058246</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>16.82991898422133</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>13.45948745710274</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5729,8 +6022,11 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>13.60592595314568</v>
       </c>
     </row>
     <row r="99">
@@ -5786,6 +6082,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>13.15465268537923</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>13.42820742329986</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5891,8 +6193,11 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>13.77753801530518</v>
       </c>
     </row>
     <row r="102">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>15.54659044690951</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>28.61560472892177</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>25.66463208595851</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>26.73946943487402</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>25.02476102227855</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>23.54972694041994</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>22.7154599272661</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>20.11524183571311</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>17.39403648715817</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>15.00472722633128</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>13.71802289972907</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>12.04460962880862</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>11.77479937768339</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6647,8 +6991,11 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>9.221332254338906</v>
       </c>
     </row>
     <row r="116">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>15.30136902329172</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>18.37135049090178</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>19.06727449596361</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>19.49850776807068</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>22.16687213344839</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>22.73375105214781</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>22.95983095334345</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>28.6648682939987</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7136,6 +7507,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M124" t="n">
+        <v>29.05505559594113</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>29.00272084565991</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>29.38100258060274</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>28.01485538941887</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7352,6 +7735,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M128" t="n">
+        <v>29.16822932597341</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7406,6 +7792,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>27.21973598226921</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7460,6 +7849,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M130" t="n">
+        <v>26.77083275920799</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7514,6 +7906,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>23.68539573636742</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7568,6 +7963,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M132" t="n">
+        <v>25.23096709773072</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7622,6 +8020,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>22.61771455279732</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7676,6 +8077,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>19.99652757490914</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>16.41840424752687</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7784,6 +8191,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>18.07008405807163</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7838,6 +8248,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>19.83546044265126</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>20.24522286393189</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7946,6 +8362,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>24.07359212531152</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8000,6 +8419,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M140" t="n">
+        <v>24.28373746210275</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>28.8580826540591</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8108,6 +8533,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>29.92693522464302</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8162,6 +8590,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>27.66048952176318</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>25.46408300773906</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>22.23028550103484</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8324,6 +8761,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M146" t="n">
+        <v>21.89306520512013</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8378,6 +8818,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M147" t="n">
+        <v>20.07765417213266</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>16.38280040979575</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>16.79154401690023</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8540,6 +8989,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M150" t="n">
+        <v>18.54827413478698</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8594,6 +9046,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>20.88375479642831</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>23.01869770406012</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>24.9333662962871</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>26.78471555495558</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>26.57755573503244</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>24.41260179405615</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>22.49075217347863</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8972,6 +9445,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M158" t="n">
+        <v>20.1688858547321</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9026,6 +9502,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>17.43821659057932</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>18.31807914871262</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9134,6 +9616,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M161" t="n">
+        <v>16.98752781628048</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9188,6 +9673,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M162" t="n">
+        <v>19.086026405749</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9242,6 +9730,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M163" t="n">
+        <v>21.08935930137462</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9296,6 +9787,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>16.41253852650454</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9350,6 +9844,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>14.03544601849319</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>15.18171176302425</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9458,6 +9958,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M167" t="n">
+        <v>13.66270823000554</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9512,6 +10015,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>14.49935325253196</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>29.71940285959284</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>27.67319470024922</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9674,6 +10186,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M171" t="n">
+        <v>29.05383225975899</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9728,6 +10243,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M172" t="n">
+        <v>29.79657802603651</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9782,6 +10300,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>26.6623035418858</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>25.27487826839872</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>28.72086579128626</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>28.33762145893413</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>25.37623303379991</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10052,6 +10585,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>24.37586942895741</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10106,6 +10642,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>21.93574137891255</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>21.44930511306667</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>20.48993053887264</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>23.36250996165315</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10322,6 +10870,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M183" t="n">
+        <v>17.93445439494257</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10376,6 +10927,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>18.118370358402</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10430,6 +10984,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M185" t="n">
+        <v>17.95762644116022</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10484,6 +11041,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>17.84957955439269</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>16.02625748029824</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>13.73458342778549</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>12.43093936427368</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10700,6 +11269,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M190" t="n">
+        <v>9.154352141061018</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10754,6 +11326,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M191" t="n">
+        <v>27.04770139031633</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10808,6 +11383,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>28.82494509803039</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10862,6 +11440,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M193" t="n">
+        <v>29.87124926230894</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10916,6 +11497,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>25.82651622083763</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10970,6 +11554,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M195" t="n">
+        <v>24.16793053738369</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11024,6 +11611,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>19.72005742731229</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>23.68629607262539</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11132,6 +11725,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M198" t="n">
+        <v>23.57675226351421</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11186,6 +11782,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M199" t="n">
+        <v>27.88444031164262</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11240,6 +11839,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>29.85743038578666</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11294,6 +11896,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M201" t="n">
+        <v>29.9867372900023</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11348,6 +11953,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>28.54291165887818</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>25.89586583191803</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>28.8335202247836</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11510,6 +12124,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>24.2876938098441</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11564,6 +12181,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M206" t="n">
+        <v>22.24457040477486</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11618,6 +12238,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>23.90017370471712</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11672,6 +12295,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M208" t="n">
+        <v>24.98757944689682</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11726,6 +12352,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>22.04060757306202</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>20.95932045180366</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11834,6 +12466,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M211" t="n">
+        <v>19.89309365093668</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11888,6 +12523,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>17.48135977853302</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11942,6 +12580,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M213" t="n">
+        <v>18.00898777023595</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11996,6 +12637,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M214" t="n">
+        <v>15.41615753422542</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>15.17845229909002</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12104,6 +12751,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M216" t="n">
+        <v>16.83754020610039</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12158,6 +12808,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>20.98802702233811</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12212,6 +12865,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M218" t="n">
+        <v>22.89504144010976</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12266,6 +12922,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M219" t="n">
+        <v>24.20312687862323</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12320,6 +12979,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>26.25822284145895</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12374,6 +13036,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M221" t="n">
+        <v>27.18939405464003</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12428,6 +13093,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>27.42329474158936</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>29.16209862233816</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12536,6 +13207,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M224" t="n">
+        <v>28.43928528111668</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>29.98378201469774</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>29.58334347499999</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>27.98705320294497</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>20.05004554227951</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12806,6 +13492,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M229" t="n">
+        <v>26.16740436310848</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12860,6 +13549,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M230" t="n">
+        <v>28.99573171754946</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12914,6 +13606,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>26.0352123543746</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>20.42321849651409</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>18.35702310356444</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>21.12605325271707</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13130,6 +13834,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M235" t="n">
+        <v>21.62631225361232</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13184,6 +13891,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M236" t="n">
+        <v>29.66126750113908</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13238,6 +13948,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M237" t="n">
+        <v>27.50255607770514</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13292,6 +14005,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M238" t="n">
+        <v>26.46207826296009</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13346,6 +14062,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>24.2510122461081</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>21.35653339252046</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>20.71843665153109</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>18.51438104137733</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>17.28271320085898</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13616,6 +14347,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M244" t="n">
+        <v>19.5708556935008</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>18.06380423234364</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>21.99394635840268</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>25.12509315850021</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>28.2746121616426</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>29.16800428235318</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13940,6 +14689,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M250" t="n">
+        <v>27.0890604808087</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13994,6 +14746,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M251" t="n">
+        <v>16.92937889268767</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>17.03319360892405</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>17.10132761037775</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>20.18685629402219</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>21.4723167762487</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14264,6 +15031,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M256" t="n">
+        <v>21.14271618933687</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14318,6 +15088,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M257" t="n">
+        <v>20.77609283153281</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14372,6 +15145,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M258" t="n">
+        <v>24.18414830369947</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14426,6 +15202,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M259" t="n">
+        <v>26.23677205235066</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14480,6 +15259,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M260" t="n">
+        <v>27.82634723227581</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14534,6 +15316,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M261" t="n">
+        <v>26.11868304821353</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14588,6 +15373,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M262" t="n">
+        <v>24.50637540906265</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14642,6 +15430,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M263" t="n">
+        <v>24.65677683564483</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14696,6 +15487,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M264" t="n">
+        <v>25.99243328968459</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14750,6 +15544,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M265" t="n">
+        <v>26.87691214316727</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14804,6 +15601,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M266" t="n">
+        <v>28.23827267405371</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14858,6 +15658,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M267" t="n">
+        <v>12.6834587193652</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14912,6 +15715,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M268" t="n">
+        <v>8.083795200004564</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14966,6 +15772,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M269" t="n">
+        <v>5.9124627845663</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15019,6 +15828,9 @@
         <is>
           <t>Yet-To-Visit</t>
         </is>
+      </c>
+      <c r="M270" t="n">
+        <v>25.58941498443074</v>
       </c>
     </row>
   </sheetData>
